--- a/Supplemental Table 2. Alpha diversity ANOVA results and pairwise comparisons.xlsx
+++ b/Supplemental Table 2. Alpha diversity ANOVA results and pairwise comparisons.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horto\Documents\Grad School\Central Michigan\Dissertation\Great Lakes Coastal Wetlands\Stats\Final figs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horto\Dropbox\Great Lakes\Manuscript\Submission\Figures and Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,9 +173,6 @@
     <t>Pairwise comparisons with bonferroni adjustments of Shannon diversity estimates between wetland sites. Significance codes: 0 '***' 0.001 '**' 0.01 '*' 0.05.</t>
   </si>
   <si>
-    <t>LME and ANOVA results on influence of depth and region on significant differences in Chao1 estimates. Significance codes: 0 '***' 0.001 '**' 0.01 '*' 0.05.</t>
-  </si>
-  <si>
     <t>LM and ANOVA results on influence of depth and wetland on significant differences in Chao1 estimates. Significance codes: 0 '***' 0.001 '**' 0.01 '*' 0.05.</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>LM and ANOVA results on influence of wetland and region on Shannon diversity levels. Significance codes: 0 '***' 0.001 '**' 0.01 '*' 0.05.</t>
+  </si>
+  <si>
+    <t>Supplemental Table 2. LME and ANOVA results on influence of depth and region on significant differences in Chao1 estimates. Significance codes: 0 '***' 0.001 '**' 0.01 '*' 0.05.</t>
   </si>
 </sst>
 </file>
@@ -577,9 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -593,7 +591,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -787,7 +785,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1165,7 +1163,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1260,7 +1258,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
